--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_17-39.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_17-39.xlsx
@@ -32,15 +32,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOL 500MG 24 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AERIUS 5MG 20 F.C. TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -59,9 +65,6 @@
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>0:0</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>BRIMILLERGY 0.025% EYE DROPS</t>
   </si>
   <si>
+    <t>BRONCHICUM 20 LOZENGES</t>
+  </si>
+  <si>
     <t>CEFOTAX 2 GM VIAL</t>
   </si>
   <si>
@@ -152,6 +158,12 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>RESTOHERB SYRUP</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>SOLITRACT 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -236,6 +245,12 @@
     <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
   </si>
   <si>
+    <t>TELFAST DECONGESTANT 60/120MG 10 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>TOMEX PLUS 50 TABLETS</t>
   </si>
   <si>
@@ -257,6 +272,9 @@
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>ZOVIRAX 400MG 10 TAB.</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -272,7 +290,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-2:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-4:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -886,7 +910,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>57.82</v>
+        <v>16</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -912,11 +936,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>34</v>
+        <v>57.82</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -938,11 +962,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -950,7 +974,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -958,17 +982,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -976,7 +1000,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -990,11 +1014,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1010,17 +1034,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>9.5</v>
+        <v>141</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1028,7 +1052,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1036,17 +1060,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>51.5</v>
+        <v>9.5</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1068,11 +1092,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>27</v>
+        <v>51.5</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1088,17 +1112,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1114,17 +1138,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1140,17 +1164,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1166,17 +1190,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>43.329999999999998</v>
+        <v>45</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1192,17 +1216,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1210,7 +1234,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1224,11 +1248,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>44</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1236,7 +1260,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1244,13 +1268,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1262,7 +1286,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1270,17 +1294,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>27.5</v>
+        <v>44</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1288,7 +1312,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1296,17 +1320,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1314,7 +1338,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1322,17 +1346,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1340,7 +1364,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1348,7 +1372,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1358,7 +1382,7 @@
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1374,17 +1398,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1400,17 +1424,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1418,7 +1442,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1426,17 +1450,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1444,7 +1468,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1452,17 +1476,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1470,7 +1494,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1478,13 +1502,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1496,7 +1520,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1504,17 +1528,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1522,7 +1546,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1530,17 +1554,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1556,17 +1580,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1582,17 +1606,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1600,7 +1624,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1608,17 +1632,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1626,7 +1650,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1634,17 +1658,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>14.25</v>
+        <v>45</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1652,7 +1676,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1666,7 +1690,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1678,7 +1702,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1692,11 +1716,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>27.440000000000001</v>
+        <v>177</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1704,7 +1728,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1712,17 +1736,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>57</v>
+        <v>14.25</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1730,7 +1754,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1738,17 +1762,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1756,7 +1780,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1764,17 +1788,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>240</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1782,7 +1806,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1790,17 +1814,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1808,7 +1832,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1816,17 +1840,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1834,7 +1858,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1842,17 +1866,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1860,7 +1884,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1868,17 +1892,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1886,7 +1910,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1894,17 +1918,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1920,17 +1944,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1938,7 +1962,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1946,17 +1970,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1964,7 +1988,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1972,17 +1996,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1990,7 +2014,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1998,17 +2022,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2016,7 +2040,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2024,17 +2048,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>86.5</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2042,7 +2066,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2050,17 +2074,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2076,17 +2100,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2102,17 +2126,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>282</v>
+        <v>86.5</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2128,17 +2152,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>30.5</v>
+        <v>67</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2154,17 +2178,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2180,17 +2204,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2206,17 +2230,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>24</v>
+        <v>30.5</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2232,17 +2256,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>26.100000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2250,7 +2274,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2258,17 +2282,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2284,17 +2308,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>94.5</v>
+        <v>123</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2310,17 +2334,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2328,7 +2352,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2336,17 +2360,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2354,7 +2378,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2362,17 +2386,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2388,17 +2412,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>4</v>
+        <v>94.5</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2406,7 +2430,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2414,17 +2438,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2432,7 +2456,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2440,17 +2464,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2458,7 +2482,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2466,51 +2490,181 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="K66" s="10">
-        <v>3856.9899999999998</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
+        <v>92</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
         <v>93</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c t="s" r="F67" s="12">
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>16</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
         <v>94</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c t="s" r="I67" s="14">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
         <v>95</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>12</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
+        <v>96</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>97</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>55</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
+        <v>98</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>99</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>15</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
+        <v>100</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
+        <v>89</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>24</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c t="s" r="N70" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="K71" s="10">
+        <v>4190.4899999999998</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="11">
+        <v>101</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c t="s" r="F72" s="12">
+        <v>102</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c t="s" r="I72" s="14">
+        <v>103</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2704,10 +2858,25 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:N67"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:N72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
